--- a/pred_ohlcv/54_21/2020-01-19 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 PIVX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>18889.05950510002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>17263.57050510001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>17168.57050510001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>13334.57050510001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>13408.57050510001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>14290.74510510002</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>14287.74510510002</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>14452.15141362001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>13891.38201362001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6920.009886379986</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4203.075186379986</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-9065.666786379985</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6790.498286379985</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-16177.95548637999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-17784.20748637999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-17782.20748637999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-18082.20748637999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-11891.91718637999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-20251.73818637999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-20251.73818637999</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-15489.14658637999</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-17147.55558637999</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-14564.05578637999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-15629.93368637999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-15625.93368637999</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-15625.93368637999</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-15593.56074953999</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-13650.86597876999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-15233.30984072999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 PIVX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>18889.05950510002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>17263.57050510001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>17168.57050510001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -912,7 +912,7 @@
         <v>36489.37261362001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>21118.44084984002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>23015.04511362001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>23271.85371362001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>23465.51721362001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5270.851113620014</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-6920.009886379986</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-9065.666786379985</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6790.498286379985</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-16177.95548637999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-17784.20748637999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-17782.20748637999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-18082.20748637999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-17829.20758637999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-9260.432986379987</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-11891.91718637999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-11889.91718637999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-11954.43318637999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-11984.43318637999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-14564.05578637999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-15629.93368637999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-15625.93368637999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-15625.93368637999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-15593.56074953999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-13650.86597876999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-15233.30984072999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
